--- a/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.1.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_13_Common_alpha=0.1.xlsx
@@ -103,6 +103,9 @@
     <t>bc</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>לקחתי אותו לרופא למשפחה...</t>
   </si>
   <si>
@@ -133,133 +136,130 @@
     <t>approve</t>
   </si>
   <si>
+    <t>אנחנו נוכל לצאת עוד מעט?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">נראה לי שכן אבל אתם תצטרכו לטיפול אולי יותר ממושך מ... מטיפול ויראלי. זה לא... דבר ש... אא לא יועד איך אא ... </t>
+  </si>
+  <si>
+    <t>יש לכם מישהו במשפחה עם סכרת עם יש לכם מישהו במשפחה שחלה עם סכרת?</t>
+  </si>
+  <si>
+    <t>למה?</t>
+  </si>
+  <si>
+    <t>?other</t>
+  </si>
+  <si>
+    <t>לא, אני שואל. יש לכם מישהו יש מכם מישהו עם סכרת?</t>
+  </si>
+  <si>
+    <t>סכרת, לא.</t>
+  </si>
+  <si>
+    <t>disagree</t>
+  </si>
+  <si>
+    <t>לא?</t>
+  </si>
+  <si>
+    <t>checks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">לא. סכרת, </t>
+  </si>
+  <si>
+    <t>אא כן אני מצטער זה ה... בדיקות מראות שלבן יש סכרת.</t>
+  </si>
+  <si>
+    <t>איך איך הגעתם לסכרת?</t>
+  </si>
+  <si>
+    <t>אנחנו לא הגענו זה הבדיקות לא משהו...</t>
+  </si>
+  <si>
+    <t>איך הגעתם לבדיקות?</t>
+  </si>
+  <si>
+    <t>בדיקות הדם, בדיקות הסוכר, זה סכרת נעורים.</t>
+  </si>
+  <si>
+    <t>הוא אכל הרבה מאד מתוק אתמול יכול להיות בגלל זה רמות של הסוכר בדם קצת גבוהות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אבל תשמע נראה לי שיש לכם פה איזשהו טעות. </t>
+  </si>
+  <si>
+    <t>לאף אחד אין במשפחה סכרת לא לי לא לאשתי. אף אחד מהסבא והסבתא, אף אחד מהמשפחה, אין סכרת</t>
+  </si>
+  <si>
+    <t>כן, אנחנו נעקוב, אנחנו נעקוב אחרי הילד נעשה לו בדיקות.</t>
+  </si>
+  <si>
+    <t>gives-thera</t>
+  </si>
+  <si>
+    <t>(לא נשמע)</t>
+  </si>
+  <si>
+    <t>unintel</t>
+  </si>
+  <si>
+    <t>אנחנו נברר.</t>
+  </si>
+  <si>
+    <t>אני רוצה עוד כמה חוות דעת לפני (לא נשמע)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">כן (לא נשמע) אני מסכים. תיקח את הילד תבדוק אותו אא </t>
+  </si>
+  <si>
+    <t>היום המצבים של הסכרת נעורים לא יודע אם יש לכם מודעת עכשיו כאילו צריכים לטפל בילד יותר, לשמור על הדיאטה שלו אא לשמור על ה... על ה...</t>
+  </si>
+  <si>
+    <t>gives-l/s</t>
+  </si>
+  <si>
+    <t>לא היה לו אף פעם דבר כזה אף רופא לא, אמר שום דבר...</t>
+  </si>
+  <si>
+    <t>אני יודע.</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אתה רוצה להגיד לי שפה יש איזשהו משהו שהתפרץ ככה סתם בלי בלי שום סיבה בלי שום הכנה? לא אחד במשפחה אין את זה. ממה? </t>
+  </si>
+  <si>
+    <t>אא זה משהו ש... זה מה שמראות הבדיקות. זה לא שאנחנו רוצים.</t>
+  </si>
+  <si>
+    <t>לא, אני רוצה הסבר לבדיקות האלה.</t>
+  </si>
+  <si>
+    <t>orient</t>
+  </si>
+  <si>
+    <t>כן יש הסבר. יש משהו גנטי במשפחה אולי אא...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אין שום אין שום גנטיקה כזאת </t>
+  </si>
+  <si>
+    <t xml:space="preserve">אא יש לכם פה טעות זה... </t>
+  </si>
+  <si>
+    <t>אא זה זה ממש לא... לא יודע מה.. אין לנו ש... אף אחד במשפחה עם זה.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> איך?</t>
+  </si>
+  <si>
+    <t>טוב. כמו שאמרתי, זכותך לקחת עוד אא,</t>
+  </si>
+  <si>
     <t>r/o</t>
-  </si>
-  <si>
-    <t>אנחנו נוכל לצאת עוד מעט?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">נראה לי שכן אבל אתם תצטרכו לטיפול אולי יותר ממושך מ... מטיפול ויראלי. זה לא... דבר ש... אא לא יועד איך אא ... </t>
-  </si>
-  <si>
-    <t>יש לכם מישהו במשפחה עם סכרת עם יש לכם מישהו במשפחה שחלה עם סכרת?</t>
-  </si>
-  <si>
-    <t>למה?</t>
-  </si>
-  <si>
-    <t>?other</t>
-  </si>
-  <si>
-    <t>לא, אני שואל. יש לכם מישהו יש מכם מישהו עם סכרת?</t>
-  </si>
-  <si>
-    <t>סכרת, לא.</t>
-  </si>
-  <si>
-    <t>disagree</t>
-  </si>
-  <si>
-    <t>לא?</t>
-  </si>
-  <si>
-    <t>checks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">לא. סכרת, </t>
-  </si>
-  <si>
-    <t>אא כן אני מצטער זה ה... בדיקות מראות שלבן יש סכרת.</t>
-  </si>
-  <si>
-    <t>איך איך הגעתם לסכרת?</t>
-  </si>
-  <si>
-    <t>אנחנו לא הגענו זה הבדיקות לא משהו...</t>
-  </si>
-  <si>
-    <t>איך הגעתם לבדיקות?</t>
-  </si>
-  <si>
-    <t>בדיקות הדם, בדיקות הסוכר, זה סכרת נעורים.</t>
-  </si>
-  <si>
-    <t>הוא אכל הרבה מאד מתוק אתמול יכול להיות בגלל זה רמות של הסוכר בדם קצת גבוהות</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אבל תשמע נראה לי שיש לכם פה איזשהו טעות. </t>
-  </si>
-  <si>
-    <t>לאף אחד אין במשפחה סכרת לא לי לא לאשתי. אף אחד מהסבא והסבתא, אף אחד מהמשפחה, אין סכרת</t>
-  </si>
-  <si>
-    <t>כן, אנחנו נעקוב, אנחנו נעקוב אחרי הילד נעשה לו בדיקות.</t>
-  </si>
-  <si>
-    <t>gives-thera</t>
-  </si>
-  <si>
-    <t>(לא נשמע)</t>
-  </si>
-  <si>
-    <t>unintel</t>
-  </si>
-  <si>
-    <t>אנחנו נברר.</t>
-  </si>
-  <si>
-    <t>אני רוצה עוד כמה חוות דעת לפני (לא נשמע)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">כן (לא נשמע) אני מסכים. תיקח את הילד תבדוק אותו אא </t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>היום המצבים של הסכרת נעורים לא יודע אם יש לכם מודעת עכשיו כאילו צריכים לטפל בילד יותר, לשמור על הדיאטה שלו אא לשמור על ה... על ה...</t>
-  </si>
-  <si>
-    <t>gives-l/s</t>
-  </si>
-  <si>
-    <t>לא היה לו אף פעם דבר כזה אף רופא לא, אמר שום דבר...</t>
-  </si>
-  <si>
-    <t>אני יודע.</t>
-  </si>
-  <si>
-    <t>emp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אתה רוצה להגיד לי שפה יש איזשהו משהו שהתפרץ ככה סתם בלי בלי שום סיבה בלי שום הכנה? לא אחד במשפחה אין את זה. ממה? </t>
-  </si>
-  <si>
-    <t>אא זה משהו ש... זה מה שמראות הבדיקות. זה לא שאנחנו רוצים.</t>
-  </si>
-  <si>
-    <t>לא, אני רוצה הסבר לבדיקות האלה.</t>
-  </si>
-  <si>
-    <t>orient</t>
-  </si>
-  <si>
-    <t>כן יש הסבר. יש משהו גנטי במשפחה אולי אא...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">אין שום אין שום גנטיקה כזאת </t>
-  </si>
-  <si>
-    <t xml:space="preserve">אא יש לכם פה טעות זה... </t>
-  </si>
-  <si>
-    <t>אא זה זה ממש לא... לא יודע מה.. אין לנו ש... אף אחד במשפחה עם זה.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> איך?</t>
-  </si>
-  <si>
-    <t>טוב. כמו שאמרתי, זכותך לקחת עוד אא,</t>
   </si>
   <si>
     <t>אני אקח (לא נשמע)</t>
@@ -804,7 +804,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -832,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -888,7 +888,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>28</v>
@@ -1092,13 +1092,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1106,13 +1106,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -1123,10 +1123,10 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1151,7 +1151,7 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -1179,7 +1179,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
@@ -1403,7 +1403,7 @@
         <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C46" t="s">
         <v>6</v>
@@ -1414,10 +1414,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
         <v>67</v>
-      </c>
-      <c r="B47" t="s">
-        <v>68</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -1442,10 +1442,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" t="s">
         <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
@@ -1484,10 +1484,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
         <v>74</v>
-      </c>
-      <c r="B52" t="s">
-        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -1568,13 +1568,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="D58" t="s">
         <v>9</v>
@@ -1669,10 +1669,10 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1725,7 +1725,7 @@
         <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -1739,10 +1739,10 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
         <v>9</v>
@@ -1753,7 +1753,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
@@ -1795,7 +1795,7 @@
         <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
@@ -1809,7 +1809,7 @@
         <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -1826,7 +1826,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1865,7 +1865,7 @@
         <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
@@ -1879,7 +1879,7 @@
         <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
@@ -1921,10 +1921,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D83" t="s">
         <v>9</v>
@@ -1935,7 +1935,7 @@
         <v>110</v>
       </c>
       <c r="B84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
@@ -1966,7 +1966,7 @@
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="D86" t="s">
         <v>9</v>
@@ -1977,7 +1977,7 @@
         <v>113</v>
       </c>
       <c r="B87" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -1994,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D88" t="s">
         <v>7</v>
@@ -2050,7 +2050,7 @@
         <v>24</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D92" t="s">
         <v>9</v>
@@ -2061,7 +2061,7 @@
         <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
@@ -2075,7 +2075,7 @@
         <v>120</v>
       </c>
       <c r="B94" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
@@ -2106,7 +2106,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2117,7 +2117,7 @@
         <v>124</v>
       </c>
       <c r="B97" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
@@ -2145,7 +2145,7 @@
         <v>126</v>
       </c>
       <c r="B99" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
@@ -2176,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D101" t="s">
         <v>9</v>
@@ -2187,7 +2187,7 @@
         <v>129</v>
       </c>
       <c r="B102" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
@@ -2215,7 +2215,7 @@
         <v>131</v>
       </c>
       <c r="B104" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
@@ -2229,7 +2229,7 @@
         <v>132</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
         <v>6</v>
@@ -2257,10 +2257,10 @@
         <v>134</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="D107" t="s">
         <v>9</v>
@@ -2285,7 +2285,7 @@
         <v>135</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -2299,10 +2299,10 @@
         <v>136</v>
       </c>
       <c r="B110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -2327,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="C112" t="s">
         <v>6</v>
